--- a/Fogos/a.xlsx
+++ b/Fogos/a.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\MIEI\mdio-projeto\Fogos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2335AFB2-8DB2-45EE-AB40-61179063E693}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08A864D-841C-44B6-B609-442CEB4F69CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{2C340B1F-F2B5-4E4D-98DD-3EBA73A58AC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{2C340B1F-F2B5-4E4D-98DD-3EBA73A58AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Questao1" sheetId="1" r:id="rId1"/>
+    <sheet name="Questao3" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="e">Questao1!$B$7:$D$9</definedName>
     <definedName name="n">Questao1!$B$3:$D$5</definedName>
     <definedName name="o">Questao1!$B$15:$D$17</definedName>
+    <definedName name="p">Questao3!$D$5:$F$7</definedName>
     <definedName name="s">Questao1!$B$11:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -449,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8809E4CE-83E4-4291-B96C-36635BFBED09}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,4 +593,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C28FB-EE40-4ECB-B928-9247DD158226}">
+  <dimension ref="C4:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>(14-$C5-D$4)/500</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="E5">
+        <f>(14-$C5-E$4)/500</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F7" si="0">(14-$C5-F$4)/500</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>(14-$C6-D$4)/500</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <f>(14-$C6-E$4)/500</f>
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:E7" si="1">(14-$C7-D$4)/500</f>
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>